--- a/Data/NVSS_2018_2021_Sex_Stratified_NCHS_Grouping_AgeAdjusted.xlsx
+++ b/Data/NVSS_2018_2021_Sex_Stratified_NCHS_Grouping_AgeAdjusted.xlsx
@@ -8460,8 +8460,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B4F328AB88706D448AC78BA5EACD5868" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ea121367de00eb5315d214fb75588841">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d40583b3-3b49-46ec-a696-de629a5756ed" xmlns:ns3="38d181cc-8454-466e-9217-0c4239f5d1cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d41fcee84e32ab97fb0635623a484afb" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B4F328AB88706D448AC78BA5EACD5868" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e9d9f6628cfd57a25ae655f4e89536d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d40583b3-3b49-46ec-a696-de629a5756ed" xmlns:ns3="38d181cc-8454-466e-9217-0c4239f5d1cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc89e96ba85faf481da03e6bd35c85ea" ns2:_="" ns3:_="">
     <xsd:import namespace="d40583b3-3b49-46ec-a696-de629a5756ed"/>
     <xsd:import namespace="38d181cc-8454-466e-9217-0c4239f5d1cc"/>
     <xsd:element name="properties">
@@ -8714,7 +8714,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11542389-8F0C-4C2A-B345-24878357A323}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE219D01-C3D7-4027-9C53-7837A4763DAB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
